--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220506_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220506_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -685,6 +685,9 @@
     <t>우리들의 블루스 OST Part 3</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -709,9 +712,6 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>빅플래닛메이드</t>
   </si>
   <si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>BRAVE</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
@@ -1187,6 +1190,12 @@
       <c r="F2" t="s">
         <v>170</v>
       </c>
+      <c r="G2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1208,10 +1217,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1234,10 +1243,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1260,7 +1269,7 @@
         <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H5" t="s">
         <v>235</v>
@@ -1286,7 +1295,7 @@
         <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
         <v>235</v>
@@ -1312,10 +1321,10 @@
         <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1338,7 +1347,7 @@
         <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
         <v>235</v>
@@ -1364,7 +1373,7 @@
         <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H9" t="s">
         <v>235</v>
@@ -1390,7 +1399,7 @@
         <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
         <v>235</v>
@@ -1416,10 +1425,10 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1442,7 +1451,7 @@
         <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H12" t="s">
         <v>235</v>
@@ -1468,7 +1477,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
         <v>235</v>
@@ -1494,7 +1503,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
         <v>235</v>
@@ -1545,6 +1554,12 @@
       <c r="F16" t="s">
         <v>170</v>
       </c>
+      <c r="G16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -1592,7 +1607,7 @@
         <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H18" t="s">
         <v>235</v>
@@ -1644,7 +1659,7 @@
         <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H20" t="s">
         <v>235</v>
@@ -1670,10 +1685,10 @@
         <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1722,7 +1737,7 @@
         <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H23" t="s">
         <v>235</v>
@@ -1748,7 +1763,7 @@
         <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H24" t="s">
         <v>235</v>
@@ -1799,6 +1814,12 @@
       <c r="F26" t="s">
         <v>170</v>
       </c>
+      <c r="G26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -1820,7 +1841,7 @@
         <v>175</v>
       </c>
       <c r="G27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H27" t="s">
         <v>235</v>
@@ -1846,7 +1867,7 @@
         <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H28" t="s">
         <v>235</v>
@@ -1872,10 +1893,10 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1924,7 +1945,7 @@
         <v>175</v>
       </c>
       <c r="G31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H31" t="s">
         <v>235</v>
@@ -1950,7 +1971,7 @@
         <v>175</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" t="s">
         <v>235</v>
@@ -1976,7 +1997,7 @@
         <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H33" t="s">
         <v>235</v>
@@ -2028,7 +2049,7 @@
         <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H35" t="s">
         <v>235</v>
@@ -2054,7 +2075,7 @@
         <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
         <v>235</v>
@@ -2080,7 +2101,7 @@
         <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H37" t="s">
         <v>235</v>
@@ -2132,10 +2153,10 @@
         <v>181</v>
       </c>
       <c r="G39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2184,10 +2205,10 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2288,10 +2309,10 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2651,6 +2672,12 @@
       <c r="F59" t="s">
         <v>170</v>
       </c>
+      <c r="G59" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
@@ -2698,10 +2725,10 @@
         <v>193</v>
       </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2802,10 +2829,10 @@
         <v>197</v>
       </c>
       <c r="G65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2906,10 +2933,10 @@
         <v>200</v>
       </c>
       <c r="G69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3036,7 +3063,7 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H74" t="s">
         <v>235</v>
@@ -3114,7 +3141,7 @@
         <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H77" t="s">
         <v>235</v>
@@ -3191,6 +3218,12 @@
       <c r="F80" t="s">
         <v>208</v>
       </c>
+      <c r="G80" t="s">
+        <v>252</v>
+      </c>
+      <c r="H80" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
@@ -3211,6 +3244,12 @@
       <c r="F81" t="s">
         <v>170</v>
       </c>
+      <c r="G81" t="s">
+        <v>223</v>
+      </c>
+      <c r="H81" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
@@ -3258,10 +3297,10 @@
         <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3284,7 +3323,7 @@
         <v>211</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H84" t="s">
         <v>235</v>
@@ -3310,10 +3349,10 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3336,7 +3375,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H86" t="s">
         <v>235</v>
@@ -3414,10 +3453,10 @@
         <v>214</v>
       </c>
       <c r="G89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3466,7 +3505,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H91" t="s">
         <v>235</v>
@@ -3569,6 +3608,12 @@
       <c r="F95" t="s">
         <v>103</v>
       </c>
+      <c r="G95" t="s">
+        <v>236</v>
+      </c>
+      <c r="H95" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
@@ -3615,6 +3660,12 @@
       <c r="F97" t="s">
         <v>218</v>
       </c>
+      <c r="G97" t="s">
+        <v>252</v>
+      </c>
+      <c r="H97" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
@@ -3636,7 +3687,7 @@
         <v>219</v>
       </c>
       <c r="G98" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H98" t="s">
         <v>235</v>
@@ -3662,7 +3713,7 @@
         <v>220</v>
       </c>
       <c r="G99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H99" t="s">
         <v>235</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220506_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220506_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-06</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220506_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220506_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -737,9 +737,6 @@
   </si>
   <si>
     <t>SHOFAR</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
@@ -2283,7 +2280,7 @@
         <v>184</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H44" t="s">
         <v>235</v>
@@ -2335,7 +2332,7 @@
         <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H46" t="s">
         <v>235</v>
@@ -2361,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H47" t="s">
         <v>235</v>
@@ -2387,7 +2384,7 @@
         <v>186</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H48" t="s">
         <v>235</v>
@@ -2413,10 +2410,10 @@
         <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2465,7 +2462,7 @@
         <v>188</v>
       </c>
       <c r="G51" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H51" t="s">
         <v>235</v>
@@ -2517,7 +2514,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H53" t="s">
         <v>235</v>
@@ -2647,10 +2644,10 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2699,7 +2696,7 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H60" t="s">
         <v>235</v>
@@ -2751,7 +2748,7 @@
         <v>194</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H62" t="s">
         <v>235</v>
@@ -2803,7 +2800,7 @@
         <v>196</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H64" t="s">
         <v>235</v>
@@ -3011,7 +3008,7 @@
         <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H72" t="s">
         <v>235</v>
@@ -3037,7 +3034,7 @@
         <v>203</v>
       </c>
       <c r="G73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H73" t="s">
         <v>235</v>
@@ -3115,7 +3112,7 @@
         <v>204</v>
       </c>
       <c r="G76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H76" t="s">
         <v>235</v>
@@ -3167,10 +3164,10 @@
         <v>206</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H78" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3193,7 +3190,7 @@
         <v>207</v>
       </c>
       <c r="G79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H79" t="s">
         <v>235</v>
@@ -3219,7 +3216,7 @@
         <v>208</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H80" t="s">
         <v>235</v>
@@ -3323,7 +3320,7 @@
         <v>211</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H84" t="s">
         <v>235</v>
@@ -3375,7 +3372,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H86" t="s">
         <v>235</v>
@@ -3505,7 +3502,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H91" t="s">
         <v>235</v>
@@ -3583,7 +3580,7 @@
         <v>181</v>
       </c>
       <c r="G94" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H94" t="s">
         <v>235</v>
@@ -3661,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="G97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H97" t="s">
         <v>235</v>
@@ -3739,7 +3736,7 @@
         <v>221</v>
       </c>
       <c r="G100" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H100" t="s">
         <v>235</v>
@@ -3765,7 +3762,7 @@
         <v>222</v>
       </c>
       <c r="G101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H101" t="s">
         <v>235</v>
